--- a/Experiements Result/BGP.xlsx
+++ b/Experiements Result/BGP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="735" windowWidth="19815" windowHeight="7185"/>
+    <workbookView xWindow="390" yWindow="855" windowWidth="19815" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="62">
   <si>
     <t>Query Type: BGP</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Query no: 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Query:  SELECT ?uri ?o   WHERE { ?uri  &lt;http://www.w3.org/2000/01/rdf-schema#label&gt; ?o. }	</t>
-  </si>
-  <si>
     <t>Diseasome</t>
   </si>
   <si>
@@ -150,12 +147,66 @@
   <si>
     <t xml:space="preserve">Query:  SELECT  ?o  WHERE { ?s  &lt;http://data.linkedmdb.org/movie/performance_name&gt; ?o  }	</t>
   </si>
+  <si>
+    <t xml:space="preserve">Query:  SELECT ?uri ?o   WHERE { ?uri  &lt;http://www.w3.org/2000/01/rdf-schema#type&gt; ?o. }	</t>
+  </si>
+  <si>
+    <t>Dataset: Publication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query:  SELECT   ?o WHERE {   ?uri   &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt;  ?o.     }	</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query:  SELECT   ?o WHERE {   ?uri   &lt;http://www.w3.org/2000/01/rdf-schema#label&gt;  ?o.     }	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query:  SELECT   ?o WHERE {   ?uri  &lt;http://xmlns.com/foaf/0.1/name&gt;   ?o.     }	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query:  SELECT   ?o WHERE {   ?uri  &lt;http://purl.org/dc/elements/1.1/title&gt;   ?o.     }	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query:  SELECT   ?o WHERE {   ?uri  &lt;http://purl.org/ontology/bibo/authorList&gt;   ?o.     }	</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -184,8 +235,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +269,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -223,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -233,12 +298,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF66"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -534,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:R242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +639,7 @@
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1899,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2385,7 +2459,7 @@
     <row r="52" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:18" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="F53" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -2396,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -2890,10 +2964,10 @@
         <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -3385,10 +3459,10 @@
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -3879,10 +3953,10 @@
         <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -4373,10 +4447,10 @@
         <v>28</v>
       </c>
       <c r="C106" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" t="s">
         <v>32</v>
-      </c>
-      <c r="D106" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -4862,7 +4936,7 @@
     <row r="119" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="120" spans="1:18" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="F120" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -4873,10 +4947,10 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" t="s">
         <v>39</v>
-      </c>
-      <c r="D121" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -5367,10 +5441,10 @@
         <v>22</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -5925,10 +5999,10 @@
         <v>24</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -6483,10 +6557,10 @@
         <v>26</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -6857,10 +6931,10 @@
         <v>28</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -7131,8 +7205,2814 @@
         <v>0</v>
       </c>
     </row>
+    <row r="176" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:18" s="9" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="F177" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="7"/>
+      <c r="R178" s="7"/>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I179" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J179" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L179" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M179" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N179" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O179" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P179" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q179" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R179" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A180" s="7">
+        <v>1</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D180" s="7">
+        <v>6</v>
+      </c>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7">
+        <v>3732</v>
+      </c>
+      <c r="G180" s="7">
+        <v>3732</v>
+      </c>
+      <c r="H180" s="7">
+        <v>3732</v>
+      </c>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7">
+        <v>3732</v>
+      </c>
+      <c r="K180" s="7">
+        <v>3732</v>
+      </c>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7">
+        <v>0</v>
+      </c>
+      <c r="N180" s="7">
+        <v>0</v>
+      </c>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="7">
+        <v>0</v>
+      </c>
+      <c r="R180" s="7"/>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A181" s="7">
+        <v>2</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D181" s="7">
+        <v>1</v>
+      </c>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7">
+        <v>6455</v>
+      </c>
+      <c r="G181" s="7">
+        <v>6455</v>
+      </c>
+      <c r="H181" s="7">
+        <v>6455</v>
+      </c>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7">
+        <v>6813</v>
+      </c>
+      <c r="K181" s="7">
+        <v>6493</v>
+      </c>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7">
+        <v>0</v>
+      </c>
+      <c r="N181" s="7">
+        <v>0</v>
+      </c>
+      <c r="O181" s="7"/>
+      <c r="P181" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="7">
+        <v>0</v>
+      </c>
+      <c r="R181" s="7"/>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A182" s="7">
+        <v>3</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D182" s="7">
+        <v>9</v>
+      </c>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7">
+        <v>8803</v>
+      </c>
+      <c r="G182" s="7">
+        <v>8924</v>
+      </c>
+      <c r="H182" s="7">
+        <v>8924</v>
+      </c>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7">
+        <v>9683</v>
+      </c>
+      <c r="K182" s="7">
+        <v>8852</v>
+      </c>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7">
+        <v>0</v>
+      </c>
+      <c r="N182" s="7">
+        <v>14641</v>
+      </c>
+      <c r="O182" s="7"/>
+      <c r="P182" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="7">
+        <v>1</v>
+      </c>
+      <c r="R182" s="7"/>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A183" s="7">
+        <v>4</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D183" s="7">
+        <v>8</v>
+      </c>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7">
+        <v>11148</v>
+      </c>
+      <c r="G183" s="7">
+        <v>11028</v>
+      </c>
+      <c r="H183" s="7">
+        <v>11148</v>
+      </c>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7">
+        <v>12434</v>
+      </c>
+      <c r="K183" s="7">
+        <v>11011</v>
+      </c>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7">
+        <v>14400</v>
+      </c>
+      <c r="N183" s="7">
+        <v>0</v>
+      </c>
+      <c r="O183" s="7"/>
+      <c r="P183" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q183" s="7">
+        <v>1</v>
+      </c>
+      <c r="R183" s="7"/>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A184" s="7">
+        <v>5</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D184" s="7">
+        <v>7</v>
+      </c>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7">
+        <v>13114</v>
+      </c>
+      <c r="G184" s="7">
+        <v>13114</v>
+      </c>
+      <c r="H184" s="7">
+        <v>13114</v>
+      </c>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7">
+        <v>15185</v>
+      </c>
+      <c r="K184" s="7">
+        <v>13045</v>
+      </c>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7">
+        <v>0</v>
+      </c>
+      <c r="N184" s="7">
+        <v>0</v>
+      </c>
+      <c r="O184" s="7"/>
+      <c r="P184" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="7">
+        <v>0</v>
+      </c>
+      <c r="R184" s="7"/>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A185" s="7">
+        <v>6</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D185" s="7">
+        <v>4</v>
+      </c>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7">
+        <v>14882</v>
+      </c>
+      <c r="G185" s="7">
+        <v>14882</v>
+      </c>
+      <c r="H185" s="7">
+        <v>14882</v>
+      </c>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7">
+        <v>17914</v>
+      </c>
+      <c r="K185" s="7">
+        <v>14818</v>
+      </c>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7">
+        <v>0</v>
+      </c>
+      <c r="N185" s="7">
+        <v>0</v>
+      </c>
+      <c r="O185" s="7"/>
+      <c r="P185" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="7">
+        <v>0</v>
+      </c>
+      <c r="R185" s="7"/>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
+        <v>7</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D186" s="7">
+        <v>5</v>
+      </c>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7">
+        <v>15124</v>
+      </c>
+      <c r="G186" s="7">
+        <v>14740</v>
+      </c>
+      <c r="H186" s="7">
+        <v>16504</v>
+      </c>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7">
+        <v>20531</v>
+      </c>
+      <c r="K186" s="7">
+        <v>16399</v>
+      </c>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7">
+        <v>3111696</v>
+      </c>
+      <c r="N186" s="7">
+        <v>1904400</v>
+      </c>
+      <c r="O186" s="7"/>
+      <c r="P186" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="7">
+        <v>9</v>
+      </c>
+      <c r="R186" s="7"/>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A187" s="7">
+        <v>8</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D187" s="7">
+        <v>3</v>
+      </c>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7">
+        <v>16386</v>
+      </c>
+      <c r="G187" s="7">
+        <v>17828</v>
+      </c>
+      <c r="H187" s="7">
+        <v>17828</v>
+      </c>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7">
+        <v>23080</v>
+      </c>
+      <c r="K187" s="7">
+        <v>17803</v>
+      </c>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7">
+        <v>0</v>
+      </c>
+      <c r="N187" s="7">
+        <v>2079364</v>
+      </c>
+      <c r="O187" s="7"/>
+      <c r="P187" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="7">
+        <v>0</v>
+      </c>
+      <c r="R187" s="7"/>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A188" s="7">
+        <v>9</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D188" s="7">
+        <v>2</v>
+      </c>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7">
+        <v>17447</v>
+      </c>
+      <c r="G188" s="7">
+        <v>18912</v>
+      </c>
+      <c r="H188" s="7">
+        <v>18912</v>
+      </c>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7">
+        <v>25571</v>
+      </c>
+      <c r="K188" s="7">
+        <v>18758</v>
+      </c>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7">
+        <v>0</v>
+      </c>
+      <c r="N188" s="7">
+        <v>2146225</v>
+      </c>
+      <c r="O188" s="7"/>
+      <c r="P188" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="7">
+        <v>0</v>
+      </c>
+      <c r="R188" s="7"/>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A189" s="7">
+        <v>10</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D189" s="7">
+        <v>10</v>
+      </c>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7">
+        <v>18912</v>
+      </c>
+      <c r="G189" s="7">
+        <v>18912</v>
+      </c>
+      <c r="H189" s="7">
+        <v>18912</v>
+      </c>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7">
+        <v>27822</v>
+      </c>
+      <c r="K189" s="7">
+        <v>18758</v>
+      </c>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7">
+        <v>0</v>
+      </c>
+      <c r="N189" s="7">
+        <v>0</v>
+      </c>
+      <c r="O189" s="7"/>
+      <c r="P189" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="7">
+        <v>9</v>
+      </c>
+      <c r="R189" s="7"/>
+    </row>
+    <row r="190" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M190" s="10">
+        <v>312609.59999999998</v>
+      </c>
+      <c r="N190" s="10">
+        <v>614463</v>
+      </c>
+      <c r="P190" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="Q190" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="7"/>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="7"/>
+      <c r="R191" s="7"/>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I192" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J192" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L192" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M192" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N192" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O192" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P192" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q192" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R192" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A193" s="7">
+        <v>1</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D193" s="7">
+        <v>6</v>
+      </c>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7">
+        <v>3424</v>
+      </c>
+      <c r="G193" s="7">
+        <v>3424</v>
+      </c>
+      <c r="H193" s="7">
+        <v>3424</v>
+      </c>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7">
+        <v>3424</v>
+      </c>
+      <c r="K193" s="7">
+        <v>3424</v>
+      </c>
+      <c r="L193" s="7"/>
+      <c r="M193" s="7">
+        <v>0</v>
+      </c>
+      <c r="N193" s="7">
+        <v>0</v>
+      </c>
+      <c r="O193" s="7"/>
+      <c r="P193" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="7">
+        <v>0</v>
+      </c>
+      <c r="R193" s="7"/>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>2</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D194" s="7">
+        <v>7</v>
+      </c>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7">
+        <v>5643</v>
+      </c>
+      <c r="G194" s="7">
+        <v>5722</v>
+      </c>
+      <c r="H194" s="7">
+        <v>5722</v>
+      </c>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7">
+        <v>6118</v>
+      </c>
+      <c r="K194" s="7">
+        <v>5701</v>
+      </c>
+      <c r="L194" s="7"/>
+      <c r="M194" s="7">
+        <v>0</v>
+      </c>
+      <c r="N194" s="7">
+        <v>6241</v>
+      </c>
+      <c r="O194" s="7"/>
+      <c r="P194" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="7">
+        <v>4</v>
+      </c>
+      <c r="R194" s="7"/>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
+        <v>3</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D195" s="7">
+        <v>1</v>
+      </c>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7">
+        <v>7427</v>
+      </c>
+      <c r="G195" s="7">
+        <v>7757</v>
+      </c>
+      <c r="H195" s="7">
+        <v>7757</v>
+      </c>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7">
+        <v>8711</v>
+      </c>
+      <c r="K195" s="7">
+        <v>7755</v>
+      </c>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7">
+        <v>0</v>
+      </c>
+      <c r="N195" s="7">
+        <v>108900</v>
+      </c>
+      <c r="O195" s="7"/>
+      <c r="P195" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="7">
+        <v>16</v>
+      </c>
+      <c r="R195" s="7"/>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A196" s="7">
+        <v>4</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D196" s="7">
+        <v>4</v>
+      </c>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7">
+        <v>9081</v>
+      </c>
+      <c r="G196" s="7">
+        <v>9681</v>
+      </c>
+      <c r="H196" s="7">
+        <v>9681</v>
+      </c>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7">
+        <v>11224</v>
+      </c>
+      <c r="K196" s="7">
+        <v>9722</v>
+      </c>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7">
+        <v>0</v>
+      </c>
+      <c r="N196" s="7">
+        <v>360000</v>
+      </c>
+      <c r="O196" s="7"/>
+      <c r="P196" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="7">
+        <v>1</v>
+      </c>
+      <c r="R196" s="7"/>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A197" s="7">
+        <v>5</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D197" s="7">
+        <v>9</v>
+      </c>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7">
+        <v>10660</v>
+      </c>
+      <c r="G197" s="7">
+        <v>11470</v>
+      </c>
+      <c r="H197" s="7">
+        <v>11470</v>
+      </c>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7">
+        <v>13655</v>
+      </c>
+      <c r="K197" s="7">
+        <v>11539</v>
+      </c>
+      <c r="L197" s="7"/>
+      <c r="M197" s="7">
+        <v>0</v>
+      </c>
+      <c r="N197" s="7">
+        <v>656100</v>
+      </c>
+      <c r="O197" s="7"/>
+      <c r="P197" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q197" s="7">
+        <v>16</v>
+      </c>
+      <c r="R197" s="7"/>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A198" s="7">
+        <v>6</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D198" s="7">
+        <v>8</v>
+      </c>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7">
+        <v>11974</v>
+      </c>
+      <c r="G198" s="7">
+        <v>13156</v>
+      </c>
+      <c r="H198" s="7">
+        <v>13162</v>
+      </c>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7">
+        <v>16065</v>
+      </c>
+      <c r="K198" s="7">
+        <v>13311</v>
+      </c>
+      <c r="L198" s="7"/>
+      <c r="M198" s="7">
+        <v>36</v>
+      </c>
+      <c r="N198" s="7">
+        <v>1411344</v>
+      </c>
+      <c r="O198" s="7"/>
+      <c r="P198" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q198" s="7">
+        <v>4</v>
+      </c>
+      <c r="R198" s="7"/>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
+        <v>7</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D199" s="7">
+        <v>2</v>
+      </c>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7">
+        <v>13521</v>
+      </c>
+      <c r="G199" s="7">
+        <v>14803</v>
+      </c>
+      <c r="H199" s="7">
+        <v>14803</v>
+      </c>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7">
+        <v>18421</v>
+      </c>
+      <c r="K199" s="7">
+        <v>14959</v>
+      </c>
+      <c r="L199" s="7"/>
+      <c r="M199" s="7">
+        <v>0</v>
+      </c>
+      <c r="N199" s="7">
+        <v>1643524</v>
+      </c>
+      <c r="O199" s="7"/>
+      <c r="P199" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q199" s="7">
+        <v>16</v>
+      </c>
+      <c r="R199" s="7"/>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A200" s="7">
+        <v>8</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D200" s="7">
+        <v>3</v>
+      </c>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7">
+        <v>14910</v>
+      </c>
+      <c r="G200" s="7">
+        <v>16237</v>
+      </c>
+      <c r="H200" s="7">
+        <v>16237</v>
+      </c>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7">
+        <v>20524</v>
+      </c>
+      <c r="K200" s="7">
+        <v>16238</v>
+      </c>
+      <c r="L200" s="7"/>
+      <c r="M200" s="7">
+        <v>0</v>
+      </c>
+      <c r="N200" s="7">
+        <v>1760929</v>
+      </c>
+      <c r="O200" s="7"/>
+      <c r="P200" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q200" s="7">
+        <v>4</v>
+      </c>
+      <c r="R200" s="7"/>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A201" s="7">
+        <v>9</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" s="7">
+        <v>5</v>
+      </c>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7">
+        <v>16440</v>
+      </c>
+      <c r="G201" s="7">
+        <v>17303</v>
+      </c>
+      <c r="H201" s="7">
+        <v>17303</v>
+      </c>
+      <c r="I201" s="7"/>
+      <c r="J201" s="7">
+        <v>22493</v>
+      </c>
+      <c r="K201" s="7">
+        <v>17238</v>
+      </c>
+      <c r="L201" s="7"/>
+      <c r="M201" s="7">
+        <v>0</v>
+      </c>
+      <c r="N201" s="7">
+        <v>744769</v>
+      </c>
+      <c r="O201" s="7"/>
+      <c r="P201" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="7">
+        <v>1</v>
+      </c>
+      <c r="R201" s="7"/>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A202" s="7">
+        <v>10</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D202" s="7">
+        <v>10</v>
+      </c>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7">
+        <v>17303</v>
+      </c>
+      <c r="G202" s="7">
+        <v>17303</v>
+      </c>
+      <c r="H202" s="7">
+        <v>17303</v>
+      </c>
+      <c r="I202" s="7"/>
+      <c r="J202" s="7">
+        <v>23944</v>
+      </c>
+      <c r="K202" s="7">
+        <v>17412</v>
+      </c>
+      <c r="L202" s="7"/>
+      <c r="M202" s="7">
+        <v>0</v>
+      </c>
+      <c r="N202" s="7">
+        <v>0</v>
+      </c>
+      <c r="O202" s="7"/>
+      <c r="P202" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="7">
+        <v>64</v>
+      </c>
+      <c r="R202" s="7"/>
+    </row>
+    <row r="203" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M203" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="N203" s="10">
+        <v>669180.69999999995</v>
+      </c>
+      <c r="P203" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="Q203" s="10">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="7"/>
+      <c r="J204" s="7"/>
+      <c r="K204" s="7"/>
+      <c r="L204" s="7"/>
+      <c r="M204" s="7"/>
+      <c r="N204" s="7"/>
+      <c r="O204" s="7"/>
+      <c r="P204" s="7"/>
+      <c r="Q204" s="7"/>
+      <c r="R204" s="7"/>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I205" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J205" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K205" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L205" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M205" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N205" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O205" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P205" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q205" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R205" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A206" s="7">
+        <v>1</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D206" s="7">
+        <v>6</v>
+      </c>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7">
+        <v>3211</v>
+      </c>
+      <c r="G206" s="7">
+        <v>3211</v>
+      </c>
+      <c r="H206" s="7">
+        <v>3211</v>
+      </c>
+      <c r="I206" s="7"/>
+      <c r="J206" s="7">
+        <v>3211</v>
+      </c>
+      <c r="K206" s="7">
+        <v>3211</v>
+      </c>
+      <c r="L206" s="7"/>
+      <c r="M206" s="7">
+        <v>0</v>
+      </c>
+      <c r="N206" s="7">
+        <v>0</v>
+      </c>
+      <c r="O206" s="7"/>
+      <c r="P206" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q206" s="7">
+        <v>0</v>
+      </c>
+      <c r="R206" s="7"/>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A207" s="7">
+        <v>2</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D207" s="7">
+        <v>10</v>
+      </c>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7">
+        <v>5258</v>
+      </c>
+      <c r="G207" s="7">
+        <v>5258</v>
+      </c>
+      <c r="H207" s="7">
+        <v>5258</v>
+      </c>
+      <c r="I207" s="7"/>
+      <c r="J207" s="7">
+        <v>5710</v>
+      </c>
+      <c r="K207" s="7">
+        <v>5225</v>
+      </c>
+      <c r="L207" s="7"/>
+      <c r="M207" s="7">
+        <v>0</v>
+      </c>
+      <c r="N207" s="7">
+        <v>0</v>
+      </c>
+      <c r="O207" s="7"/>
+      <c r="P207" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q207" s="7">
+        <v>0</v>
+      </c>
+      <c r="R207" s="7"/>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A208" s="7">
+        <v>3</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D208" s="7">
+        <v>8</v>
+      </c>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7">
+        <v>6714</v>
+      </c>
+      <c r="G208" s="7">
+        <v>6714</v>
+      </c>
+      <c r="H208" s="7">
+        <v>6714</v>
+      </c>
+      <c r="I208" s="7"/>
+      <c r="J208" s="7">
+        <v>7893</v>
+      </c>
+      <c r="K208" s="7">
+        <v>6713</v>
+      </c>
+      <c r="L208" s="7"/>
+      <c r="M208" s="7">
+        <v>0</v>
+      </c>
+      <c r="N208" s="7">
+        <v>0</v>
+      </c>
+      <c r="O208" s="7"/>
+      <c r="P208" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="7">
+        <v>0</v>
+      </c>
+      <c r="R208" s="7"/>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A209" s="7">
+        <v>4</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D209" s="7">
+        <v>7</v>
+      </c>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7">
+        <v>7941</v>
+      </c>
+      <c r="G209" s="7">
+        <v>7987</v>
+      </c>
+      <c r="H209" s="7">
+        <v>7987</v>
+      </c>
+      <c r="I209" s="7"/>
+      <c r="J209" s="7">
+        <v>9950</v>
+      </c>
+      <c r="K209" s="7">
+        <v>8004</v>
+      </c>
+      <c r="L209" s="7"/>
+      <c r="M209" s="7">
+        <v>0</v>
+      </c>
+      <c r="N209" s="7">
+        <v>2116</v>
+      </c>
+      <c r="O209" s="7"/>
+      <c r="P209" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q209" s="7">
+        <v>4</v>
+      </c>
+      <c r="R209" s="7"/>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A210" s="7">
+        <v>5</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D210" s="7">
+        <v>1</v>
+      </c>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7">
+        <v>8954</v>
+      </c>
+      <c r="G210" s="7">
+        <v>9046</v>
+      </c>
+      <c r="H210" s="7">
+        <v>9118</v>
+      </c>
+      <c r="I210" s="7"/>
+      <c r="J210" s="7">
+        <v>11967</v>
+      </c>
+      <c r="K210" s="7">
+        <v>9105</v>
+      </c>
+      <c r="L210" s="7"/>
+      <c r="M210" s="7">
+        <v>5184</v>
+      </c>
+      <c r="N210" s="7">
+        <v>26896</v>
+      </c>
+      <c r="O210" s="7"/>
+      <c r="P210" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q210" s="7">
+        <v>4</v>
+      </c>
+      <c r="R210" s="7"/>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A211" s="7">
+        <v>6</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D211" s="7">
+        <v>3</v>
+      </c>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7">
+        <v>9973</v>
+      </c>
+      <c r="G211" s="7">
+        <v>10072</v>
+      </c>
+      <c r="H211" s="7">
+        <v>10126</v>
+      </c>
+      <c r="I211" s="7"/>
+      <c r="J211" s="7">
+        <v>13921</v>
+      </c>
+      <c r="K211" s="7">
+        <v>10071</v>
+      </c>
+      <c r="L211" s="7"/>
+      <c r="M211" s="7">
+        <v>2916</v>
+      </c>
+      <c r="N211" s="7">
+        <v>23409</v>
+      </c>
+      <c r="O211" s="7"/>
+      <c r="P211" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q211" s="7">
+        <v>1</v>
+      </c>
+      <c r="R211" s="7"/>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A212" s="7">
+        <v>7</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D212" s="7">
+        <v>2</v>
+      </c>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7">
+        <v>10940</v>
+      </c>
+      <c r="G212" s="7">
+        <v>10940</v>
+      </c>
+      <c r="H212" s="7">
+        <v>10940</v>
+      </c>
+      <c r="I212" s="7"/>
+      <c r="J212" s="7">
+        <v>15827</v>
+      </c>
+      <c r="K212" s="7">
+        <v>10899</v>
+      </c>
+      <c r="L212" s="7"/>
+      <c r="M212" s="7">
+        <v>0</v>
+      </c>
+      <c r="N212" s="7">
+        <v>0</v>
+      </c>
+      <c r="O212" s="7"/>
+      <c r="P212" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q212" s="7">
+        <v>9</v>
+      </c>
+      <c r="R212" s="7"/>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A213" s="7">
+        <v>8</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D213" s="7">
+        <v>4</v>
+      </c>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7">
+        <v>11479</v>
+      </c>
+      <c r="G213" s="7">
+        <v>11479</v>
+      </c>
+      <c r="H213" s="7">
+        <v>11479</v>
+      </c>
+      <c r="I213" s="7"/>
+      <c r="J213" s="7">
+        <v>17327</v>
+      </c>
+      <c r="K213" s="7">
+        <v>11495</v>
+      </c>
+      <c r="L213" s="7"/>
+      <c r="M213" s="7">
+        <v>0</v>
+      </c>
+      <c r="N213" s="7">
+        <v>0</v>
+      </c>
+      <c r="O213" s="7"/>
+      <c r="P213" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q213" s="7">
+        <v>0</v>
+      </c>
+      <c r="R213" s="7"/>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A214" s="7">
+        <v>9</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D214" s="7">
+        <v>5</v>
+      </c>
+      <c r="E214" s="7"/>
+      <c r="F214" s="7">
+        <v>11639</v>
+      </c>
+      <c r="G214" s="7">
+        <v>11545</v>
+      </c>
+      <c r="H214" s="7">
+        <v>11639</v>
+      </c>
+      <c r="I214" s="7"/>
+      <c r="J214" s="7">
+        <v>18079</v>
+      </c>
+      <c r="K214" s="7">
+        <v>11760</v>
+      </c>
+      <c r="L214" s="7"/>
+      <c r="M214" s="7">
+        <v>8836</v>
+      </c>
+      <c r="N214" s="7">
+        <v>0</v>
+      </c>
+      <c r="O214" s="7"/>
+      <c r="P214" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q214" s="7">
+        <v>0</v>
+      </c>
+      <c r="R214" s="7"/>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A215" s="7">
+        <v>10</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D215" s="7">
+        <v>9</v>
+      </c>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7">
+        <v>11705</v>
+      </c>
+      <c r="G215" s="7">
+        <v>11705</v>
+      </c>
+      <c r="H215" s="7">
+        <v>11705</v>
+      </c>
+      <c r="I215" s="7"/>
+      <c r="J215" s="7">
+        <v>18545</v>
+      </c>
+      <c r="K215" s="7">
+        <v>11881</v>
+      </c>
+      <c r="L215" s="7"/>
+      <c r="M215" s="7">
+        <v>0</v>
+      </c>
+      <c r="N215" s="7">
+        <v>0</v>
+      </c>
+      <c r="O215" s="7"/>
+      <c r="P215" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q215" s="7">
+        <v>0</v>
+      </c>
+      <c r="R215" s="7"/>
+    </row>
+    <row r="216" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M216" s="10">
+        <v>1693.6</v>
+      </c>
+      <c r="N216" s="10">
+        <v>5242.1000000000004</v>
+      </c>
+      <c r="P216" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="Q216" s="10">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="7"/>
+      <c r="J217" s="7"/>
+      <c r="K217" s="7"/>
+      <c r="L217" s="7"/>
+      <c r="M217" s="7"/>
+      <c r="N217" s="7"/>
+      <c r="O217" s="7"/>
+      <c r="P217" s="7"/>
+      <c r="Q217" s="7"/>
+      <c r="R217" s="7"/>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H218" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I218" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J218" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K218" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L218" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M218" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N218" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O218" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P218" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q218" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R218" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A219" s="7">
+        <v>1</v>
+      </c>
+      <c r="B219" s="7" t="str">
+        <f>C219</f>
+        <v>5</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D219" s="7">
+        <v>5</v>
+      </c>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7">
+        <v>622</v>
+      </c>
+      <c r="G219" s="7">
+        <v>622</v>
+      </c>
+      <c r="H219" s="7">
+        <v>622</v>
+      </c>
+      <c r="I219" s="7"/>
+      <c r="J219" s="7">
+        <v>622</v>
+      </c>
+      <c r="K219" s="7">
+        <v>622</v>
+      </c>
+      <c r="L219" s="7"/>
+      <c r="M219" s="7">
+        <v>0</v>
+      </c>
+      <c r="N219" s="7">
+        <v>0</v>
+      </c>
+      <c r="O219" s="7"/>
+      <c r="P219" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q219" s="7">
+        <v>0</v>
+      </c>
+      <c r="R219" s="7"/>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A220" s="7">
+        <v>2</v>
+      </c>
+      <c r="B220" s="7" t="str">
+        <f t="shared" ref="B220:B228" si="0">C220</f>
+        <v>9</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D220" s="7">
+        <v>9</v>
+      </c>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7">
+        <v>1111</v>
+      </c>
+      <c r="G220" s="7">
+        <v>1111</v>
+      </c>
+      <c r="H220" s="7">
+        <v>1111</v>
+      </c>
+      <c r="I220" s="7"/>
+      <c r="J220" s="7">
+        <v>1111</v>
+      </c>
+      <c r="K220" s="7">
+        <v>1111</v>
+      </c>
+      <c r="L220" s="7"/>
+      <c r="M220" s="7">
+        <v>0</v>
+      </c>
+      <c r="N220" s="7">
+        <v>0</v>
+      </c>
+      <c r="O220" s="7"/>
+      <c r="P220" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q220" s="7">
+        <v>0</v>
+      </c>
+      <c r="R220" s="7"/>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A221" s="7">
+        <v>3</v>
+      </c>
+      <c r="B221" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D221" s="7">
+        <v>3</v>
+      </c>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7">
+        <v>1458</v>
+      </c>
+      <c r="G221" s="7">
+        <v>1458</v>
+      </c>
+      <c r="H221" s="7">
+        <v>1458</v>
+      </c>
+      <c r="I221" s="7"/>
+      <c r="J221" s="7">
+        <v>1458</v>
+      </c>
+      <c r="K221" s="7">
+        <v>1458</v>
+      </c>
+      <c r="L221" s="7"/>
+      <c r="M221" s="7">
+        <v>0</v>
+      </c>
+      <c r="N221" s="7">
+        <v>0</v>
+      </c>
+      <c r="O221" s="7"/>
+      <c r="P221" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q221" s="7">
+        <v>0</v>
+      </c>
+      <c r="R221" s="7"/>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A222" s="7">
+        <v>4</v>
+      </c>
+      <c r="B222" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D222" s="7">
+        <v>7</v>
+      </c>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7">
+        <v>1801</v>
+      </c>
+      <c r="G222" s="7">
+        <v>1801</v>
+      </c>
+      <c r="H222" s="7">
+        <v>1801</v>
+      </c>
+      <c r="I222" s="7"/>
+      <c r="J222" s="7">
+        <v>1801</v>
+      </c>
+      <c r="K222" s="7">
+        <v>1801</v>
+      </c>
+      <c r="L222" s="7"/>
+      <c r="M222" s="7">
+        <v>0</v>
+      </c>
+      <c r="N222" s="7">
+        <v>0</v>
+      </c>
+      <c r="O222" s="7"/>
+      <c r="P222" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q222" s="7">
+        <v>0</v>
+      </c>
+      <c r="R222" s="7"/>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A223" s="7">
+        <v>5</v>
+      </c>
+      <c r="B223" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D223" s="7">
+        <v>2</v>
+      </c>
+      <c r="E223" s="7"/>
+      <c r="F223" s="7">
+        <v>2064</v>
+      </c>
+      <c r="G223" s="7">
+        <v>2064</v>
+      </c>
+      <c r="H223" s="7">
+        <v>2064</v>
+      </c>
+      <c r="I223" s="7"/>
+      <c r="J223" s="7">
+        <v>2064</v>
+      </c>
+      <c r="K223" s="7">
+        <v>2064</v>
+      </c>
+      <c r="L223" s="7"/>
+      <c r="M223" s="7">
+        <v>0</v>
+      </c>
+      <c r="N223" s="7">
+        <v>0</v>
+      </c>
+      <c r="O223" s="7"/>
+      <c r="P223" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q223" s="7">
+        <v>0</v>
+      </c>
+      <c r="R223" s="7"/>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A224" s="7">
+        <v>6</v>
+      </c>
+      <c r="B224" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D224" s="7">
+        <v>4</v>
+      </c>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7">
+        <v>2320</v>
+      </c>
+      <c r="G224" s="7">
+        <v>2320</v>
+      </c>
+      <c r="H224" s="7">
+        <v>2320</v>
+      </c>
+      <c r="I224" s="7"/>
+      <c r="J224" s="7">
+        <v>2320</v>
+      </c>
+      <c r="K224" s="7">
+        <v>2320</v>
+      </c>
+      <c r="L224" s="7"/>
+      <c r="M224" s="7">
+        <v>0</v>
+      </c>
+      <c r="N224" s="7">
+        <v>0</v>
+      </c>
+      <c r="O224" s="7"/>
+      <c r="P224" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q224" s="7">
+        <v>0</v>
+      </c>
+      <c r="R224" s="7"/>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A225" s="7">
+        <v>7</v>
+      </c>
+      <c r="B225" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D225" s="7">
+        <v>1</v>
+      </c>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7">
+        <v>2558</v>
+      </c>
+      <c r="G225" s="7">
+        <v>2558</v>
+      </c>
+      <c r="H225" s="7">
+        <v>2558</v>
+      </c>
+      <c r="I225" s="7"/>
+      <c r="J225" s="7">
+        <v>2558</v>
+      </c>
+      <c r="K225" s="7">
+        <v>2558</v>
+      </c>
+      <c r="L225" s="7"/>
+      <c r="M225" s="7">
+        <v>0</v>
+      </c>
+      <c r="N225" s="7">
+        <v>0</v>
+      </c>
+      <c r="O225" s="7"/>
+      <c r="P225" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q225" s="7">
+        <v>0</v>
+      </c>
+      <c r="R225" s="7"/>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A226" s="7">
+        <v>8</v>
+      </c>
+      <c r="B226" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D226" s="7">
+        <v>8</v>
+      </c>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7">
+        <v>2780</v>
+      </c>
+      <c r="G226" s="7">
+        <v>2780</v>
+      </c>
+      <c r="H226" s="7">
+        <v>2780</v>
+      </c>
+      <c r="I226" s="7"/>
+      <c r="J226" s="7">
+        <v>2780</v>
+      </c>
+      <c r="K226" s="7">
+        <v>2780</v>
+      </c>
+      <c r="L226" s="7"/>
+      <c r="M226" s="7">
+        <v>0</v>
+      </c>
+      <c r="N226" s="7">
+        <v>0</v>
+      </c>
+      <c r="O226" s="7"/>
+      <c r="P226" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q226" s="7">
+        <v>0</v>
+      </c>
+      <c r="R226" s="7"/>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A227" s="7">
+        <v>9</v>
+      </c>
+      <c r="B227" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D227" s="7">
+        <v>6</v>
+      </c>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7">
+        <v>2966</v>
+      </c>
+      <c r="G227" s="7">
+        <v>2966</v>
+      </c>
+      <c r="H227" s="7">
+        <v>2966</v>
+      </c>
+      <c r="I227" s="7"/>
+      <c r="J227" s="7">
+        <v>2966</v>
+      </c>
+      <c r="K227" s="7">
+        <v>2966</v>
+      </c>
+      <c r="L227" s="7"/>
+      <c r="M227" s="7">
+        <v>0</v>
+      </c>
+      <c r="N227" s="7">
+        <v>0</v>
+      </c>
+      <c r="O227" s="7"/>
+      <c r="P227" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q227" s="7">
+        <v>0</v>
+      </c>
+      <c r="R227" s="7"/>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A228" s="7">
+        <v>10</v>
+      </c>
+      <c r="B228" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D228" s="7">
+        <v>10</v>
+      </c>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7">
+        <v>2966</v>
+      </c>
+      <c r="G228" s="7">
+        <v>2966</v>
+      </c>
+      <c r="H228" s="7">
+        <v>2966</v>
+      </c>
+      <c r="I228" s="7"/>
+      <c r="J228" s="7">
+        <v>3039</v>
+      </c>
+      <c r="K228" s="7">
+        <v>2966</v>
+      </c>
+      <c r="L228" s="7"/>
+      <c r="M228" s="7">
+        <v>0</v>
+      </c>
+      <c r="N228" s="7">
+        <v>0</v>
+      </c>
+      <c r="O228" s="7"/>
+      <c r="P228" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q228" s="7">
+        <v>0</v>
+      </c>
+      <c r="R228" s="7"/>
+    </row>
+    <row r="229" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M229" s="10">
+        <v>0</v>
+      </c>
+      <c r="N229" s="10">
+        <v>0</v>
+      </c>
+      <c r="P229" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q229" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A230" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="7"/>
+      <c r="J230" s="7"/>
+      <c r="K230" s="7"/>
+      <c r="L230" s="7"/>
+      <c r="M230" s="7"/>
+      <c r="N230" s="7"/>
+      <c r="O230" s="7"/>
+      <c r="P230" s="7"/>
+      <c r="Q230" s="7"/>
+      <c r="R230" s="7"/>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I231" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J231" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K231" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L231" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M231" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N231" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O231" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P231" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q231" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R231" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A232" s="7">
+        <v>1</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D232" s="7">
+        <v>5</v>
+      </c>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7">
+        <v>591</v>
+      </c>
+      <c r="G232" s="7">
+        <v>591</v>
+      </c>
+      <c r="H232" s="7">
+        <v>591</v>
+      </c>
+      <c r="I232" s="7"/>
+      <c r="J232" s="7">
+        <v>591</v>
+      </c>
+      <c r="K232" s="7">
+        <v>591</v>
+      </c>
+      <c r="L232" s="7"/>
+      <c r="M232" s="7">
+        <v>0</v>
+      </c>
+      <c r="N232" s="7">
+        <v>0</v>
+      </c>
+      <c r="O232" s="7"/>
+      <c r="P232" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q232" s="7">
+        <v>0</v>
+      </c>
+      <c r="R232" s="7"/>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A233" s="7">
+        <v>2</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D233" s="7">
+        <v>9</v>
+      </c>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7">
+        <v>1077</v>
+      </c>
+      <c r="G233" s="7">
+        <v>1077</v>
+      </c>
+      <c r="H233" s="7">
+        <v>1077</v>
+      </c>
+      <c r="I233" s="7"/>
+      <c r="J233" s="7">
+        <v>1077</v>
+      </c>
+      <c r="K233" s="7">
+        <v>1077</v>
+      </c>
+      <c r="L233" s="7"/>
+      <c r="M233" s="7">
+        <v>0</v>
+      </c>
+      <c r="N233" s="7">
+        <v>0</v>
+      </c>
+      <c r="O233" s="7"/>
+      <c r="P233" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q233" s="7">
+        <v>0</v>
+      </c>
+      <c r="R233" s="7"/>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A234" s="7">
+        <v>3</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D234" s="7">
+        <v>1</v>
+      </c>
+      <c r="E234" s="7"/>
+      <c r="F234" s="7">
+        <v>1323</v>
+      </c>
+      <c r="G234" s="7">
+        <v>1323</v>
+      </c>
+      <c r="H234" s="7">
+        <v>1323</v>
+      </c>
+      <c r="I234" s="7"/>
+      <c r="J234" s="7">
+        <v>1323</v>
+      </c>
+      <c r="K234" s="7">
+        <v>1323</v>
+      </c>
+      <c r="L234" s="7"/>
+      <c r="M234" s="7">
+        <v>0</v>
+      </c>
+      <c r="N234" s="7">
+        <v>0</v>
+      </c>
+      <c r="O234" s="7"/>
+      <c r="P234" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q234" s="7">
+        <v>0</v>
+      </c>
+      <c r="R234" s="7"/>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A235" s="7">
+        <v>4</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D235" s="7">
+        <v>7</v>
+      </c>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7">
+        <v>1489</v>
+      </c>
+      <c r="G235" s="7">
+        <v>1489</v>
+      </c>
+      <c r="H235" s="7">
+        <v>1489</v>
+      </c>
+      <c r="I235" s="7"/>
+      <c r="J235" s="7">
+        <v>1489</v>
+      </c>
+      <c r="K235" s="7">
+        <v>1489</v>
+      </c>
+      <c r="L235" s="7"/>
+      <c r="M235" s="7">
+        <v>0</v>
+      </c>
+      <c r="N235" s="7">
+        <v>0</v>
+      </c>
+      <c r="O235" s="7"/>
+      <c r="P235" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q235" s="7">
+        <v>0</v>
+      </c>
+      <c r="R235" s="7"/>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A236" s="7">
+        <v>5</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D236" s="7">
+        <v>2</v>
+      </c>
+      <c r="E236" s="7"/>
+      <c r="F236" s="7">
+        <v>1641</v>
+      </c>
+      <c r="G236" s="7">
+        <v>1641</v>
+      </c>
+      <c r="H236" s="7">
+        <v>1641</v>
+      </c>
+      <c r="I236" s="7"/>
+      <c r="J236" s="7">
+        <v>1641</v>
+      </c>
+      <c r="K236" s="7">
+        <v>1641</v>
+      </c>
+      <c r="L236" s="7"/>
+      <c r="M236" s="7">
+        <v>0</v>
+      </c>
+      <c r="N236" s="7">
+        <v>0</v>
+      </c>
+      <c r="O236" s="7"/>
+      <c r="P236" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q236" s="7">
+        <v>0</v>
+      </c>
+      <c r="R236" s="7"/>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A237" s="7">
+        <v>6</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D237" s="7">
+        <v>4</v>
+      </c>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7">
+        <v>1791</v>
+      </c>
+      <c r="G237" s="7">
+        <v>1791</v>
+      </c>
+      <c r="H237" s="7">
+        <v>1791</v>
+      </c>
+      <c r="I237" s="7"/>
+      <c r="J237" s="7">
+        <v>1791</v>
+      </c>
+      <c r="K237" s="7">
+        <v>1791</v>
+      </c>
+      <c r="L237" s="7"/>
+      <c r="M237" s="7">
+        <v>0</v>
+      </c>
+      <c r="N237" s="7">
+        <v>0</v>
+      </c>
+      <c r="O237" s="7"/>
+      <c r="P237" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q237" s="7">
+        <v>0</v>
+      </c>
+      <c r="R237" s="7"/>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A238" s="7">
+        <v>7</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D238" s="7">
+        <v>6</v>
+      </c>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7">
+        <v>1885</v>
+      </c>
+      <c r="G238" s="7">
+        <v>1885</v>
+      </c>
+      <c r="H238" s="7">
+        <v>1885</v>
+      </c>
+      <c r="I238" s="7"/>
+      <c r="J238" s="7">
+        <v>1885</v>
+      </c>
+      <c r="K238" s="7">
+        <v>1885</v>
+      </c>
+      <c r="L238" s="7"/>
+      <c r="M238" s="7">
+        <v>0</v>
+      </c>
+      <c r="N238" s="7">
+        <v>0</v>
+      </c>
+      <c r="O238" s="7"/>
+      <c r="P238" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q238" s="7">
+        <v>0</v>
+      </c>
+      <c r="R238" s="7"/>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A239" s="7">
+        <v>8</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D239" s="7">
+        <v>3</v>
+      </c>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7">
+        <v>1952</v>
+      </c>
+      <c r="G239" s="7">
+        <v>1952</v>
+      </c>
+      <c r="H239" s="7">
+        <v>1952</v>
+      </c>
+      <c r="I239" s="7"/>
+      <c r="J239" s="7">
+        <v>1952</v>
+      </c>
+      <c r="K239" s="7">
+        <v>1952</v>
+      </c>
+      <c r="L239" s="7"/>
+      <c r="M239" s="7">
+        <v>0</v>
+      </c>
+      <c r="N239" s="7">
+        <v>0</v>
+      </c>
+      <c r="O239" s="7"/>
+      <c r="P239" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q239" s="7">
+        <v>0</v>
+      </c>
+      <c r="R239" s="7"/>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A240" s="7">
+        <v>9</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D240" s="7">
+        <v>8</v>
+      </c>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7">
+        <v>1958</v>
+      </c>
+      <c r="G240" s="7">
+        <v>1965</v>
+      </c>
+      <c r="H240" s="7">
+        <v>1965</v>
+      </c>
+      <c r="I240" s="7"/>
+      <c r="J240" s="7">
+        <v>1997</v>
+      </c>
+      <c r="K240" s="7">
+        <v>1965</v>
+      </c>
+      <c r="L240" s="7"/>
+      <c r="M240" s="7">
+        <v>0</v>
+      </c>
+      <c r="N240" s="7">
+        <v>49</v>
+      </c>
+      <c r="O240" s="7"/>
+      <c r="P240" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q240" s="7">
+        <v>1</v>
+      </c>
+      <c r="R240" s="7"/>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A241" s="7">
+        <v>10</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D241" s="7">
+        <v>10</v>
+      </c>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7">
+        <v>1965</v>
+      </c>
+      <c r="G241" s="7">
+        <v>1965</v>
+      </c>
+      <c r="H241" s="7">
+        <v>1965</v>
+      </c>
+      <c r="I241" s="7"/>
+      <c r="J241" s="7">
+        <v>2010</v>
+      </c>
+      <c r="K241" s="7">
+        <v>1965</v>
+      </c>
+      <c r="L241" s="7"/>
+      <c r="M241" s="7">
+        <v>0</v>
+      </c>
+      <c r="N241" s="7">
+        <v>0</v>
+      </c>
+      <c r="O241" s="7"/>
+      <c r="P241" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q241" s="7">
+        <v>1</v>
+      </c>
+      <c r="R241" s="7"/>
+    </row>
+    <row r="242" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M242" s="10">
+        <v>0</v>
+      </c>
+      <c r="N242" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P242" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q242" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>